--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05d227db91bf3aa2/GitHub/tis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF9444F-30A1-48A3-9CCE-EE4225DC66B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0BF9444F-30A1-48A3-9CCE-EE4225DC66B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E380D92-55D2-4E64-BE21-D6CAD81F6535}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3645" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{698F0F85-CA55-489A-934E-194FD77EE21F}"/>
+    <workbookView xWindow="28680" yWindow="-3645" windowWidth="51840" windowHeight="21120" xr2:uid="{698F0F85-CA55-489A-934E-194FD77EE21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (5)" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1 (7)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1 (5)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1 (6)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1168,6 +1169,1062 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27865</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>48110</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907FF404-ED7F-4ABC-B902-72A05E6AF7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1250240" y="1797050"/>
+          <a:ext cx="8255711" cy="7668110"/>
+          <a:chOff x="1189915" y="1123950"/>
+          <a:chExt cx="9575689" cy="8592035"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB4ED92-37CE-A1C6-140E-3F04282E5625}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1237540" y="1123950"/>
+            <a:ext cx="7989010" cy="7350125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F692FE-6627-BA32-553D-6EE802D02C5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="544204">
+            <a:off x="1647826" y="2447924"/>
+            <a:ext cx="7645400" cy="2064271"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A4B723-9643-71CA-1FD2-F9E0F0274563}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="207577">
+            <a:off x="1762126" y="3545796"/>
+            <a:ext cx="7477124" cy="1702921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA7A2AD5-CCC9-27E2-5C73-A157BFB5E717}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2400300" y="4511675"/>
+            <a:ext cx="6826250" cy="3147165"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="Group 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D390116-F3DE-F974-9609-49F52DF558CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9079682" y="4543425"/>
+            <a:ext cx="1685922" cy="1993878"/>
+            <a:chOff x="21369477" y="3930650"/>
+            <a:chExt cx="2684566" cy="2989232"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Arrow: Chevron 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1918C33C-303F-52F0-4FDD-FFE19B750362}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21369477" y="3930650"/>
+              <a:ext cx="1530350" cy="2974973"/>
+            </a:xfrm>
+            <a:prstGeom prst="chevron">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Arrow: Chevron 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F8B4EA-77AC-A197-A380-B39F3F5F961F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21630900" y="3935421"/>
+              <a:ext cx="1530350" cy="2974973"/>
+            </a:xfrm>
+            <a:prstGeom prst="chevron">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Arrow: Chevron 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D67219-4E87-64A2-F864-BBE8A87136DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22520520" y="3948082"/>
+              <a:ext cx="1533523" cy="2971800"/>
+            </a:xfrm>
+            <a:prstGeom prst="chevron">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B7397E-8FC6-EE0C-9AB4-5F646B75E59E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="21390329">
+            <a:off x="3209924" y="5695950"/>
+            <a:ext cx="6074818" cy="3410693"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C72181-1044-2FBB-1726-26DD004835FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="21100975">
+            <a:off x="3527424" y="6238875"/>
+            <a:ext cx="5814277" cy="3477110"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83700E8B-2004-564C-282F-F70803D56CBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1189915" y="1371600"/>
+            <a:ext cx="7989010" cy="7353300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="Picture 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3020D9B7-9C43-8ECE-2C08-D0F5C358559D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="544204">
+            <a:off x="1654176" y="2974974"/>
+            <a:ext cx="7648575" cy="2064271"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Picture 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0086CD69-D645-2C3B-A79E-D43AB46FEC61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="207577">
+            <a:off x="1768476" y="4066496"/>
+            <a:ext cx="7480299" cy="1702921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAF8539-E6CE-70CF-7C6A-00381FF8501C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2409825" y="5038725"/>
+            <a:ext cx="6829425" cy="3143990"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:reflection blurRad="12700" stA="30000" endPos="30000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing">
+              <a:rot lat="300000" lon="19800000" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="50800"/>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34927</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E707E6A1-D04E-51C5-FC31-82B36D76F42C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9788527" y="1758950"/>
+          <a:ext cx="9318624" cy="7820025"/>
+          <a:chOff x="9788526" y="1758950"/>
+          <a:chExt cx="9801894" cy="8080664"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Picture 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8B34AD-70FE-2996-B2B6-AE838D72CC43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11036300" y="1758950"/>
+            <a:ext cx="8338713" cy="3404075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="127000" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="95250" dir="10500000" sx="97000" sy="23000" kx="900000" algn="br" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="6350">
+            <a:bevelT w="50800" h="16510"/>
+            <a:contourClr>
+              <a:srgbClr val="C0C0C0"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7631CEC6-61B7-9BF6-4C0F-A2830FAC024F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="21129764">
+            <a:off x="14792325" y="3086100"/>
+            <a:ext cx="4798095" cy="4045515"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="127000" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="95250" dir="10500000" sx="97000" sy="23000" kx="900000" algn="br" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="6350">
+            <a:bevelT w="50800" h="16510"/>
+            <a:contourClr>
+              <a:srgbClr val="C0C0C0"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Picture 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DC00DE-C092-89E5-B08D-67ABF6547DDA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="21427391">
+            <a:off x="14039850" y="4479924"/>
+            <a:ext cx="5353797" cy="3623180"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="127000" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="95250" dir="10500000" sx="97000" sy="23000" kx="900000" algn="br" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="6350">
+            <a:bevelT w="50800" h="16510"/>
+            <a:contourClr>
+              <a:srgbClr val="C0C0C0"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145494DD-8878-7FD0-1E00-030169B8D1D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9788526" y="3857624"/>
+            <a:ext cx="5639486" cy="3693115"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="127000" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="95250" dir="10500000" sx="97000" sy="23000" kx="900000" algn="br" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="6350">
+            <a:bevelT w="50800" h="16510"/>
+            <a:contourClr>
+              <a:srgbClr val="C0C0C0"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Picture 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7642F126-D96D-77C5-586A-13726C3FB47B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="325582">
+            <a:off x="13115925" y="5581650"/>
+            <a:ext cx="6249272" cy="4153480"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="127000" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="95250" dir="10500000" sx="97000" sy="23000" kx="900000" algn="br" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="6350">
+            <a:bevelT w="50800" h="16510"/>
+            <a:contourClr>
+              <a:srgbClr val="C0C0C0"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Picture 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11ADA14-8BD1-A390-0DFC-779CCF5EB9BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="20808940">
+            <a:off x="11571058" y="6715480"/>
+            <a:ext cx="5593689" cy="3124134"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="127000" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dist="95250" dir="10500000" sx="97000" sy="23000" kx="900000" algn="br" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="20000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="twoPt" dir="t">
+              <a:rot lat="0" lon="0" rev="7800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="6350">
+            <a:bevelT w="50800" h="16510"/>
+            <a:contourClr>
+              <a:srgbClr val="C0C0C0"/>
+            </a:contourClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1983,20 +3040,64 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5BC808-2D24-A3FC-726E-6A3EADBEF5B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="990601"/>
+          <a:ext cx="10140950" cy="8531224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>278690</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>75490</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>63985</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114785</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2011,8 +3112,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1494715" y="1638300"/>
-          <a:ext cx="8258886" cy="7668110"/>
+          <a:off x="1294690" y="1863725"/>
+          <a:ext cx="8255711" cy="7671285"/>
           <a:chOff x="1189915" y="1123950"/>
           <a:chExt cx="9575689" cy="8592035"/>
         </a:xfrm>
@@ -2031,7 +3132,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2077,7 +3178,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2123,7 +3224,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2169,7 +3270,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2418,7 +3519,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2464,7 +3565,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2510,7 +3611,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2556,7 +3657,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2602,7 +3703,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2648,7 +3749,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2686,15 +3787,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>378392</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>342582</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>234952</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>102655</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>151620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>65004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2710,15 +3811,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8303192" y="1539875"/>
-          <a:ext cx="10829360" cy="7621055"/>
+        <a:xfrm rot="21172984">
+          <a:off x="8267382" y="2506087"/>
+          <a:ext cx="10172238" cy="7160117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2759,7 +3860,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4027,7 +5128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81518A8F-312E-40B6-8D98-EF3244CA51BA}">
   <dimension ref="B3:AG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="AL31" sqref="AL31"/>
     </sheetView>
   </sheetViews>
@@ -7866,6 +8967,1927 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C21BD2-890D-44E3-814A-9F8F0EBC62C9}">
+  <dimension ref="B3:AG59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="6"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="6"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="6"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="6"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="6"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="6"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="6"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="6"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="6"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="6"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="6"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="6"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="6"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="6"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="6"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="6"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="6"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="6"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="6"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="6"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="6"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="6"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="6"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="6"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="6"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="6"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="6"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="6"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="6"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="6"/>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="6"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="6"/>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="6"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="6"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="6"/>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="6"/>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="6"/>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="6"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="6"/>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="6"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="6"/>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="6"/>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="6"/>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="6"/>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="6"/>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="6"/>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="6"/>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="6"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="6"/>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="6"/>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="6"/>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="6"/>
+    </row>
+    <row r="59" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA018CE-F672-42C2-8284-62D1BA0CDBEE}">
   <dimension ref="B3:AG59"/>
   <sheetViews>
@@ -9786,12 +12808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E6B7D8-B0D5-4652-934C-2F5FC8581593}">
   <dimension ref="B3:AG59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+      <selection activeCell="AR28" sqref="AR28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11707,11 +14729,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE220802-638A-4A2B-8B65-7994DB453338}">
   <dimension ref="B3:AG59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AM31" sqref="AM31"/>
     </sheetView>
   </sheetViews>
